--- a/tools/excel/tisax/tisax-v5.1.xlsx
+++ b/tools/excel/tisax/tisax-v5.1.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="library_content" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="controls" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="scores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="implementation_groups" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="library_meta" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="controls_meta" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="controls_content" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="scores_meta" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="scores_content" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="implementation_groups_meta" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="implementation_groups_content" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,87 +430,98 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>library_urn</t>
+          <t>type</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>urn:intuitem:risk:library:tisax-v5.1</t>
+          <t>library</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>library_version</t>
+          <t>urn</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>urn:intuitem:risk:library:tisax-v5.1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>library_locale</t>
+          <t>version</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>library_ref_id</t>
+          <t>locale</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TISAX v5.1</t>
+          <t>en</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>library_name</t>
+          <t>ref_id</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trusted Information Security Assessment Exchange    </t>
+          <t>TISAX v5.1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>library_description</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">VDA ISA provides the basis for
+          <t>Trusted Information Security Assessment Exchange</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>VDA ISA provides the basis for
 - a self-assessment to determine the state of information security in an organization (e.g. company)
 - audits performed by internal departments (e.g. Internal Audit, Information Security)
 - a review in accordance with TISAX (Trusted Information Security Assessment Exchange, http://enx.com/tisax/)
-Source: https://portal.enx.com/isa5-en.xlsx
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>library_copyright</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+Source: https://portal.enx.com/isa5-en.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>copyright</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Publisher: VERBAND DER AUTOMOBILINDUSTRIE e. V. (VDA, German Association of the Automotive Industry); Behrenstr. 35; 10117 Berlin; www.vda.de
 © 2022 Verband der Automobilindustrie e.V., Berlin
@@ -515,151 +529,27 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>library_provider</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>VDA</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>library_packager</t>
+          <t>provider</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>intuitem</t>
+          <t>VDA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>framework_urn</t>
+          <t>packager</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>urn:intuitem:risk:framework:tisax-v5.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>framework_ref_id</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TISAX v5.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>framework_name</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Trusted Information Security Assessment Exchange</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>framework_description</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VDA ISA provides the basis for
-- a self-assessment to determine the state of information security in an organization (e.g. company)
-- audits performed by internal departments (e.g. Internal Audit, Information Security)
-- a review in accordance with TISAX (Trusted Information Security Assessment Exchange, http://enx.com/tisax/)
-Source: https://portal.enx.com/isa5-en.xlsx
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>framework_min_score</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>framework_max_score</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>tab</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>controls</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>requirements</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>tab</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>scores</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>scores</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>tab</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>implementation_groups</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>implementation_groups</t>
+          <t>intuitem</t>
         </is>
       </c>
     </row>
@@ -669,6 +559,149 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>framework</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>base_urn</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>urn:intuitem:risk:req_node:tisax-v5.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>urn</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>urn:intuitem:risk:framework:tisax-v5.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ref_id</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TISAX v5.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Trusted Information Security Assessment Exchange</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>VDA ISA provides the basis for
+- a self-assessment to determine the state of information security in an organization (e.g. company)
+- audits performed by internal departments (e.g. Internal Audit, Information Security)
+- a review in accordance with TISAX (Trusted Information Security Assessment Exchange, http://enx.com/tisax/)
+Source: https://portal.enx.com/isa5-en.xlsx</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>min_score</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>max_score</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>scores_definition</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>scores</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>implementation_groups_definition</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>implementation_groups</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -715,7 +748,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
         <v>1</v>
       </c>
@@ -729,11 +761,8 @@
           <t>IS Policies and Organization</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="n">
         <v>2</v>
       </c>
@@ -742,16 +771,13 @@
           <t>1.1</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Information Security Policies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
       <c r="B4" t="n">
         <v>3</v>
       </c>
@@ -760,13 +786,11 @@
           <t>1.1.1</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>To what extent are information security policies available?</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -777,7 +801,6 @@
       <c r="B5" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -806,7 +829,6 @@
       <c r="B6" t="n">
         <v>4</v>
       </c>
-      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -830,7 +852,6 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr"/>
       <c r="B7" t="n">
         <v>2</v>
       </c>
@@ -839,16 +860,13 @@
           <t>1.2</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Organization of Information Security</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
       <c r="B8" t="n">
         <v>3</v>
       </c>
@@ -857,13 +875,11 @@
           <t>1.2.1</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>To what extent is information security managed within the organization?</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -874,7 +890,6 @@
       <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -897,7 +912,6 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" t="n">
         <v>3</v>
       </c>
@@ -906,13 +920,11 @@
           <t>1.2.2</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>To what extent are information security responsibilities organized?</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -923,7 +935,6 @@
       <c r="B11" t="n">
         <v>4</v>
       </c>
-      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -952,7 +963,6 @@
       <c r="B12" t="n">
         <v>4</v>
       </c>
-      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -978,7 +988,6 @@
       <c r="B13" t="n">
         <v>4</v>
       </c>
-      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -996,7 +1005,6 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
       <c r="B14" t="n">
         <v>3</v>
       </c>
@@ -1005,13 +1013,11 @@
           <t>1.2.3</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>To what extent are information security requirements taken into account in projects?</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1022,7 +1028,6 @@
       <c r="B15" t="n">
         <v>4</v>
       </c>
-      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -1048,7 +1053,6 @@
       <c r="B16" t="n">
         <v>4</v>
       </c>
-      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -1076,7 +1080,6 @@
       <c r="B17" t="n">
         <v>4</v>
       </c>
-      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -1094,7 +1097,6 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
       <c r="B18" t="n">
         <v>3</v>
       </c>
@@ -1103,13 +1105,11 @@
           <t>1.2.4</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>To what extent are the responsibilities between external IT service providers and the own organization defined?</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1120,7 +1120,6 @@
       <c r="B19" t="n">
         <v>4</v>
       </c>
-      <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -1150,7 +1149,6 @@
       <c r="B20" t="n">
         <v>4</v>
       </c>
-      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -1177,7 +1175,6 @@
       <c r="B21" t="n">
         <v>4</v>
       </c>
-      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -1199,7 +1196,6 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
       <c r="B22" t="n">
         <v>2</v>
       </c>
@@ -1208,16 +1204,13 @@
           <t>1.3</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>Asset Management</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
       <c r="B23" t="n">
         <v>3</v>
       </c>
@@ -1226,13 +1219,11 @@
           <t>1.3.1</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">To what extent are information assets identified and recorded? </t>
         </is>
       </c>
-      <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1243,7 +1234,6 @@
       <c r="B24" t="n">
         <v>4</v>
       </c>
-      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -1272,7 +1262,6 @@
       <c r="B25" t="n">
         <v>4</v>
       </c>
-      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -1292,7 +1281,6 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr"/>
       <c r="B26" t="n">
         <v>3</v>
       </c>
@@ -1301,13 +1289,11 @@
           <t>1.3.2</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>To what extent are information assets classified and managed in terms of their protection needs?</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1318,7 +1304,6 @@
       <c r="B27" t="n">
         <v>4</v>
       </c>
-      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -1346,7 +1331,6 @@
       <c r="B28" t="n">
         <v>4</v>
       </c>
-      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -1364,7 +1348,6 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
       <c r="B29" t="n">
         <v>3</v>
       </c>
@@ -1373,13 +1356,11 @@
           <t>1.3.3</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>To what extent is it ensured that only evaluated and approved external IT services are used for processing the organization’s information assets?</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1390,7 +1371,6 @@
       <c r="B30" t="n">
         <v>4</v>
       </c>
-      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -1419,7 +1399,6 @@
       <c r="B31" t="n">
         <v>4</v>
       </c>
-      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -1441,7 +1420,6 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
       <c r="B32" t="n">
         <v>2</v>
       </c>
@@ -1450,16 +1428,13 @@
           <t>1.4</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>IS Risk Management</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
       <c r="B33" t="n">
         <v>3</v>
       </c>
@@ -1468,13 +1443,11 @@
           <t>1.4.1</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>To what extent are information security risks managed?</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1485,7 +1458,6 @@
       <c r="B34" t="n">
         <v>4</v>
       </c>
-      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -1514,7 +1486,6 @@
       <c r="B35" t="n">
         <v>4</v>
       </c>
-      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -1536,7 +1507,6 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
       <c r="B36" t="n">
         <v>2</v>
       </c>
@@ -1545,16 +1515,13 @@
           <t>1.5</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>Assessments</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
       <c r="B37" t="n">
         <v>3</v>
       </c>
@@ -1563,13 +1530,11 @@
           <t>1.5.1</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>To what extent is compliance with information security ensured in procedures and processes?</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1580,7 +1545,6 @@
       <c r="B38" t="n">
         <v>4</v>
       </c>
-      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -1610,7 +1574,6 @@
       <c r="B39" t="n">
         <v>4</v>
       </c>
-      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -1628,7 +1591,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr"/>
       <c r="B40" t="n">
         <v>3</v>
       </c>
@@ -1637,13 +1599,11 @@
           <t>1.5.2</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>To what extent is the ISMS reviewed by an independent authority?</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1654,7 +1614,6 @@
       <c r="B41" t="n">
         <v>4</v>
       </c>
-      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -1681,7 +1640,6 @@
       <c r="B42" t="n">
         <v>4</v>
       </c>
-      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -1699,7 +1657,6 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr"/>
       <c r="B43" t="n">
         <v>2</v>
       </c>
@@ -1708,16 +1665,13 @@
           <t>1.6</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>Incident Management</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
       <c r="B44" t="n">
         <v>3</v>
       </c>
@@ -1726,13 +1680,11 @@
           <t>1.6.1</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>To what extent are information security events processed?</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1743,7 +1695,6 @@
       <c r="B45" t="n">
         <v>4</v>
       </c>
-      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -1781,7 +1732,6 @@
       <c r="B46" t="n">
         <v>4</v>
       </c>
-      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -1808,7 +1758,6 @@
       <c r="B47" t="n">
         <v>4</v>
       </c>
-      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -1826,7 +1775,6 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
       <c r="B48" t="n">
         <v>1</v>
       </c>
@@ -1840,11 +1788,8 @@
           <t>Human Resources</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
       <c r="B49" t="n">
         <v>2</v>
       </c>
@@ -1853,13 +1798,11 @@
           <t>2.1.1</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>To what extent is the qualification of employees for sensitive work fields ensured?</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1870,7 +1813,6 @@
       <c r="B50" t="n">
         <v>3</v>
       </c>
-      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -1898,7 +1840,6 @@
       <c r="B51" t="n">
         <v>3</v>
       </c>
-      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -1917,7 +1858,6 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr"/>
       <c r="B52" t="n">
         <v>2</v>
       </c>
@@ -1926,13 +1866,11 @@
           <t>2.1.2</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>To what extent is all staff contractually bound to comply with information security policies?</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1943,7 +1881,6 @@
       <c r="B53" t="n">
         <v>3</v>
       </c>
-      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -1970,7 +1907,6 @@
       <c r="B54" t="n">
         <v>3</v>
       </c>
-      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -1990,7 +1926,6 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
       <c r="B55" t="n">
         <v>2</v>
       </c>
@@ -1999,13 +1934,11 @@
           <t>2.1.3</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>To what extent is staff made aware of and trained with respect to the risks arising from the handling of information?</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2016,7 +1949,6 @@
       <c r="B56" t="n">
         <v>3</v>
       </c>
-      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -2042,7 +1974,6 @@
       <c r="B57" t="n">
         <v>3</v>
       </c>
-      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -2072,7 +2003,6 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
       <c r="B58" t="n">
         <v>2</v>
       </c>
@@ -2081,13 +2011,11 @@
           <t>2.1.4</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>To what extent is teleworking regulated?</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2098,7 +2026,6 @@
       <c r="B59" t="n">
         <v>3</v>
       </c>
-      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -2129,7 +2056,6 @@
       <c r="B60" t="n">
         <v>3</v>
       </c>
-      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -2158,7 +2084,6 @@
       <c r="B61" t="n">
         <v>3</v>
       </c>
-      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -2176,11 +2101,9 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
       <c r="B62" t="n">
         <v>3</v>
       </c>
-      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
           <t>Further information</t>
@@ -2193,7 +2116,6 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
       <c r="B63" t="n">
         <v>1</v>
       </c>
@@ -2207,11 +2129,8 @@
           <t>Physical Security and Business Continuity</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
       <c r="B64" t="n">
         <v>2</v>
       </c>
@@ -2220,13 +2139,11 @@
           <t>3.1.1</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>To what extent are security zones managed to protect information assets?</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2237,7 +2154,6 @@
       <c r="B65" t="n">
         <v>3</v>
       </c>
-      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -2267,7 +2183,6 @@
       <c r="B66" t="n">
         <v>3</v>
       </c>
-      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -2297,7 +2212,6 @@
       <c r="B67" t="n">
         <v>3</v>
       </c>
-      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -2315,11 +2229,9 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
       <c r="B68" t="n">
         <v>3</v>
       </c>
-      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
           <t>Further information</t>
@@ -2339,7 +2251,6 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
       <c r="B69" t="n">
         <v>2</v>
       </c>
@@ -2348,13 +2259,11 @@
           <t>3.1.2</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>To what extent is information security ensured in exceptional situations?</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2365,7 +2274,6 @@
       <c r="B70" t="n">
         <v>3</v>
       </c>
-      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -2394,7 +2302,6 @@
       <c r="B71" t="n">
         <v>3</v>
       </c>
-      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -2420,7 +2327,6 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr"/>
       <c r="B72" t="n">
         <v>2</v>
       </c>
@@ -2429,13 +2335,11 @@
           <t>3.1.3</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>To what extent is the handling of supporting assets managed?</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2446,7 +2350,6 @@
       <c r="B73" t="n">
         <v>3</v>
       </c>
-      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -2472,7 +2375,6 @@
       <c r="B74" t="n">
         <v>3</v>
       </c>
-      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -2490,7 +2392,6 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr"/>
       <c r="B75" t="n">
         <v>2</v>
       </c>
@@ -2499,13 +2400,11 @@
           <t>3.1.4</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>To what extent is the handling of mobile IT devices and mobile data storage devices managed?</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2516,7 +2415,6 @@
       <c r="B76" t="n">
         <v>3</v>
       </c>
-      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -2545,7 +2443,6 @@
       <c r="B77" t="n">
         <v>3</v>
       </c>
-      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -2572,7 +2469,6 @@
       <c r="B78" t="n">
         <v>3</v>
       </c>
-      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -2591,7 +2487,6 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr"/>
       <c r="B79" t="n">
         <v>1</v>
       </c>
@@ -2605,11 +2500,8 @@
           <t>Identity and Access Management</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr"/>
       <c r="B80" t="n">
         <v>2</v>
       </c>
@@ -2618,16 +2510,13 @@
           <t>4.1</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>Identity Management</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
       <c r="B81" t="n">
         <v>3</v>
       </c>
@@ -2636,13 +2525,11 @@
           <t>4.1.1</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>To what extent is the use of identification means managed?</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2653,7 +2540,6 @@
       <c r="B82" t="n">
         <v>4</v>
       </c>
-      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -2683,7 +2569,6 @@
       <c r="B83" t="n">
         <v>4</v>
       </c>
-      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -2709,7 +2594,6 @@
       <c r="B84" t="n">
         <v>4</v>
       </c>
-      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -2728,7 +2612,6 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr"/>
       <c r="B85" t="n">
         <v>3</v>
       </c>
@@ -2737,13 +2620,11 @@
           <t>4.1.2</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
           <t>To what extent is the user access to network services, IT systems and IT applications secured?</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2754,7 +2635,6 @@
       <c r="B86" t="n">
         <v>4</v>
       </c>
-      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -2781,7 +2661,6 @@
       <c r="B87" t="n">
         <v>4</v>
       </c>
-      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -2809,7 +2688,6 @@
       <c r="B88" t="n">
         <v>4</v>
       </c>
-      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -2835,7 +2713,6 @@
       <c r="B89" t="n">
         <v>4</v>
       </c>
-      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
           <t>(for very high protection needs)</t>
@@ -2853,7 +2730,6 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr"/>
       <c r="B90" t="n">
         <v>3</v>
       </c>
@@ -2862,13 +2738,11 @@
           <t>4.1.3</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
           <t xml:space="preserve">To what extent are user accounts and login information securely managed and applied? </t>
         </is>
       </c>
-      <c r="F90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2879,7 +2753,6 @@
       <c r="B91" t="n">
         <v>4</v>
       </c>
-      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -2919,7 +2792,6 @@
       <c r="B92" t="n">
         <v>4</v>
       </c>
-      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -2945,7 +2817,6 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr"/>
       <c r="B93" t="n">
         <v>2</v>
       </c>
@@ -2954,16 +2825,13 @@
           <t>4.2</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>Access Management</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr"/>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
       <c r="B94" t="n">
         <v>3</v>
       </c>
@@ -2972,13 +2840,11 @@
           <t>4.2.1</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>To what extent are access rights assigned and managed?</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2989,7 +2855,6 @@
       <c r="B95" t="n">
         <v>4</v>
       </c>
-      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -3018,7 +2883,6 @@
       <c r="B96" t="n">
         <v>4</v>
       </c>
-      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -3048,7 +2912,6 @@
       <c r="B97" t="n">
         <v>4</v>
       </c>
-      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -3074,7 +2937,6 @@
       <c r="B98" t="n">
         <v>4</v>
       </c>
-      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
           <t>(for very high protection needs)</t>
@@ -3095,11 +2957,9 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr"/>
       <c r="B99" t="n">
         <v>4</v>
       </c>
-      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
           <t>Further information</t>
@@ -3112,7 +2972,6 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr"/>
       <c r="B100" t="n">
         <v>1</v>
       </c>
@@ -3126,11 +2985,8 @@
           <t>IT Security / Cyber Security</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr"/>
       <c r="B101" t="n">
         <v>2</v>
       </c>
@@ -3139,16 +2995,13 @@
           <t>5.1</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>Cryptography</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr"/>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr"/>
       <c r="B102" t="n">
         <v>3</v>
       </c>
@@ -3157,13 +3010,11 @@
           <t>5.1.1</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
           <t>To what extent is the use of cryptographic procedures managed?</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3174,7 +3025,6 @@
       <c r="B103" t="n">
         <v>4</v>
       </c>
-      <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -3201,7 +3051,6 @@
       <c r="B104" t="n">
         <v>4</v>
       </c>
-      <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -3232,7 +3081,6 @@
       <c r="B105" t="n">
         <v>4</v>
       </c>
-      <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -3250,7 +3098,6 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr"/>
       <c r="B106" t="n">
         <v>3</v>
       </c>
@@ -3259,13 +3106,11 @@
           <t>5.1.2</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
           <t>To what extent is information protected during transfer?</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3276,7 +3121,6 @@
       <c r="B107" t="n">
         <v>4</v>
       </c>
-      <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -3304,7 +3148,6 @@
       <c r="B108" t="n">
         <v>4</v>
       </c>
-      <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -3331,7 +3174,6 @@
       <c r="B109" t="n">
         <v>4</v>
       </c>
-      <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -3358,7 +3200,6 @@
       <c r="B110" t="n">
         <v>4</v>
       </c>
-      <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
           <t>(for very high protection needs)</t>
@@ -3376,7 +3217,6 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
       <c r="B111" t="n">
         <v>2</v>
       </c>
@@ -3385,16 +3225,13 @@
           <t>5.2</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
           <t>Operations Security</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr"/>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr"/>
       <c r="B112" t="n">
         <v>3</v>
       </c>
@@ -3403,13 +3240,11 @@
           <t>5.2.1</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t xml:space="preserve">To what extent are changes managed? </t>
         </is>
       </c>
-      <c r="F112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3420,7 +3255,6 @@
       <c r="B113" t="n">
         <v>4</v>
       </c>
-      <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -3446,7 +3280,6 @@
       <c r="B114" t="n">
         <v>4</v>
       </c>
-      <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -3475,7 +3308,6 @@
       <c r="B115" t="n">
         <v>4</v>
       </c>
-      <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -3493,7 +3325,6 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
       <c r="B116" t="n">
         <v>3</v>
       </c>
@@ -3502,13 +3333,11 @@
           <t>5.2.2</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
           <t>To what extent are development and testing environments separated from operational environments?</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3519,7 +3348,6 @@
       <c r="B117" t="n">
         <v>4</v>
       </c>
-      <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -3546,7 +3374,6 @@
       <c r="B118" t="n">
         <v>4</v>
       </c>
-      <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -3567,7 +3394,6 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr"/>
       <c r="B119" t="n">
         <v>3</v>
       </c>
@@ -3576,13 +3402,11 @@
           <t>5.2.3</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
           <t>To what extent are IT systems protected against malware?</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3593,7 +3417,6 @@
       <c r="B120" t="n">
         <v>4</v>
       </c>
-      <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -3620,7 +3443,6 @@
       <c r="B121" t="n">
         <v>4</v>
       </c>
-      <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -3647,7 +3469,6 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr"/>
       <c r="B122" t="n">
         <v>3</v>
       </c>
@@ -3656,13 +3477,11 @@
           <t>5.2.4</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
           <t>To what extent are event logs recorded and analyzed?</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3673,7 +3492,6 @@
       <c r="B123" t="n">
         <v>4</v>
       </c>
-      <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -3703,7 +3521,6 @@
       <c r="B124" t="n">
         <v>4</v>
       </c>
-      <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -3731,7 +3548,6 @@
       <c r="B125" t="n">
         <v>4</v>
       </c>
-      <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -3758,7 +3574,6 @@
       <c r="B126" t="n">
         <v>4</v>
       </c>
-      <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
           <t>(for very high protection needs)</t>
@@ -3776,7 +3591,6 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr"/>
       <c r="B127" t="n">
         <v>3</v>
       </c>
@@ -3785,13 +3599,11 @@
           <t>5.2.5</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
           <t xml:space="preserve">To what extent are vulnerabilities identified and addressed? </t>
         </is>
       </c>
-      <c r="F127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3802,7 +3614,6 @@
       <c r="B128" t="n">
         <v>4</v>
       </c>
-      <c r="C128" t="inlineStr"/>
       <c r="D128" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -3829,7 +3640,6 @@
       <c r="B129" t="n">
         <v>4</v>
       </c>
-      <c r="C129" t="inlineStr"/>
       <c r="D129" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -3849,7 +3659,6 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr"/>
       <c r="B130" t="n">
         <v>3</v>
       </c>
@@ -3858,13 +3667,11 @@
           <t>5.2.6</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
           <t>To what extent are IT systems technically checked (system audit)?</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3875,7 +3682,6 @@
       <c r="B131" t="n">
         <v>4</v>
       </c>
-      <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -3905,7 +3711,6 @@
       <c r="B132" t="n">
         <v>4</v>
       </c>
-      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -3926,7 +3731,6 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr"/>
       <c r="B133" t="n">
         <v>3</v>
       </c>
@@ -3935,14 +3739,12 @@
           <t>5.2.7</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
           <t xml:space="preserve">To what extent is the network of the organization managed?
 </t>
         </is>
       </c>
-      <c r="F133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3953,7 +3755,6 @@
       <c r="B134" t="n">
         <v>4</v>
       </c>
-      <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -3980,7 +3781,6 @@
       <c r="B135" t="n">
         <v>4</v>
       </c>
-      <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -4012,7 +3812,6 @@
       <c r="B136" t="n">
         <v>4</v>
       </c>
-      <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -4032,7 +3831,6 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr"/>
       <c r="B137" t="n">
         <v>2</v>
       </c>
@@ -4041,16 +3839,13 @@
           <t>5.3</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
           <t>System acquisitions, requirement management and development</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr"/>
       <c r="B138" t="n">
         <v>3</v>
       </c>
@@ -4059,13 +3854,11 @@
           <t>5.3.1</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
           <t>To what extent is information security considered in new or further developed IT systems?</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -4076,7 +3869,6 @@
       <c r="B139" t="n">
         <v>4</v>
       </c>
-      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -4105,7 +3897,6 @@
       <c r="B140" t="n">
         <v>4</v>
       </c>
-      <c r="C140" t="inlineStr"/>
       <c r="D140" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -4129,7 +3920,6 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
       <c r="B141" t="n">
         <v>3</v>
       </c>
@@ -4138,13 +3928,11 @@
           <t>5.3.2</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
           <t>To what extent are requirements for network services defined?</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -4155,7 +3943,6 @@
       <c r="B142" t="n">
         <v>4</v>
       </c>
-      <c r="C142" t="inlineStr"/>
       <c r="D142" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -4181,7 +3968,6 @@
       <c r="B143" t="n">
         <v>4</v>
       </c>
-      <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -4209,7 +3995,6 @@
       <c r="B144" t="n">
         <v>4</v>
       </c>
-      <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -4227,7 +4012,6 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr"/>
       <c r="B145" t="n">
         <v>3</v>
       </c>
@@ -4236,13 +4020,11 @@
           <t>5.3.3</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
           <t xml:space="preserve">To what extent is the return and secure removal of information assets from external IT services regulated? </t>
         </is>
       </c>
-      <c r="F145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4253,7 +4035,6 @@
       <c r="B146" t="n">
         <v>4</v>
       </c>
-      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -4279,7 +4060,6 @@
       <c r="B147" t="n">
         <v>4</v>
       </c>
-      <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -4297,7 +4077,6 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr"/>
       <c r="B148" t="n">
         <v>3</v>
       </c>
@@ -4306,13 +4085,11 @@
           <t>5.3.4</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
           <t>To what extent is information protected in shared external IT services?</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4323,7 +4100,6 @@
       <c r="B149" t="n">
         <v>4</v>
       </c>
-      <c r="C149" t="inlineStr"/>
       <c r="D149" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -4349,7 +4125,6 @@
       <c r="B150" t="n">
         <v>4</v>
       </c>
-      <c r="C150" t="inlineStr"/>
       <c r="D150" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -4369,7 +4144,6 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr"/>
       <c r="B151" t="n">
         <v>1</v>
       </c>
@@ -4383,11 +4157,8 @@
           <t>Supplier Relationships</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr"/>
       <c r="B152" t="n">
         <v>2</v>
       </c>
@@ -4396,14 +4167,12 @@
           <t>6.1.1</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
           <t xml:space="preserve">To what extent is information security ensured among contractors and cooperation partners?
 </t>
         </is>
       </c>
-      <c r="F152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4414,7 +4183,6 @@
       <c r="B153" t="n">
         <v>3</v>
       </c>
-      <c r="C153" t="inlineStr"/>
       <c r="D153" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -4443,7 +4211,6 @@
       <c r="B154" t="n">
         <v>3</v>
       </c>
-      <c r="C154" t="inlineStr"/>
       <c r="D154" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -4470,7 +4237,6 @@
       <c r="B155" t="n">
         <v>3</v>
       </c>
-      <c r="C155" t="inlineStr"/>
       <c r="D155" t="inlineStr">
         <is>
           <t>(for high protection needs)</t>
@@ -4488,11 +4254,9 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr"/>
       <c r="B156" t="n">
         <v>3</v>
       </c>
-      <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
           <t>Further information</t>
@@ -4516,7 +4280,6 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr"/>
       <c r="B157" t="n">
         <v>2</v>
       </c>
@@ -4525,13 +4288,11 @@
           <t>6.1.2</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
           <t>To what extent is non-disclosure regarding the exchange of information contractually agreed?</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4542,7 +4303,6 @@
       <c r="B158" t="n">
         <v>3</v>
       </c>
-      <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -4571,7 +4331,6 @@
       <c r="B159" t="n">
         <v>3</v>
       </c>
-      <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -4598,7 +4357,6 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr"/>
       <c r="B160" t="n">
         <v>1</v>
       </c>
@@ -4612,11 +4370,8 @@
           <t>Compliance</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr"/>
       <c r="B161" t="n">
         <v>2</v>
       </c>
@@ -4625,13 +4380,11 @@
           <t>7.1.1</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
           <t>To what extent is compliance with regulatory and contractual provisions ensured?</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4642,7 +4395,6 @@
       <c r="B162" t="n">
         <v>3</v>
       </c>
-      <c r="C162" t="inlineStr"/>
       <c r="D162" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -4669,7 +4421,6 @@
       <c r="B163" t="n">
         <v>3</v>
       </c>
-      <c r="C163" t="inlineStr"/>
       <c r="D163" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -4687,7 +4438,6 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr"/>
       <c r="B164" t="n">
         <v>2</v>
       </c>
@@ -4696,13 +4446,11 @@
           <t>7.1.2</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
           <t xml:space="preserve">To what extent is the protection of personally identifiable data taken into account when implementing information security? </t>
         </is>
       </c>
-      <c r="F164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4713,7 +4461,6 @@
       <c r="B165" t="n">
         <v>3</v>
       </c>
-      <c r="C165" t="inlineStr"/>
       <c r="D165" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -4733,7 +4480,6 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr"/>
       <c r="B166" t="n">
         <v>1</v>
       </c>
@@ -4747,11 +4493,8 @@
           <t>Prototype Protection</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr"/>
       <c r="B167" t="n">
         <v>2</v>
       </c>
@@ -4760,16 +4503,13 @@
           <t>8.1</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
           <t>Physical and Environmental Security</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr"/>
       <c r="B168" t="n">
         <v>3</v>
       </c>
@@ -4778,13 +4518,11 @@
           <t>8.1.1</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr"/>
       <c r="E168" t="inlineStr">
         <is>
           <t>To what extent is a security concept available describing minimum requirements regarding the physical and environmental security for prototype protection?</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4795,7 +4533,6 @@
       <c r="B169" t="n">
         <v>4</v>
       </c>
-      <c r="C169" t="inlineStr"/>
       <c r="D169" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -4827,7 +4564,6 @@
       <c r="B170" t="n">
         <v>4</v>
       </c>
-      <c r="C170" t="inlineStr"/>
       <c r="D170" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -4845,7 +4581,6 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr"/>
       <c r="B171" t="n">
         <v>3</v>
       </c>
@@ -4854,13 +4589,11 @@
           <t>8.1.2</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
           <t>To what extent is perimeter security existent preventing unauthorized access to protected property objects?</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4871,7 +4604,6 @@
       <c r="B172" t="n">
         <v>4</v>
       </c>
-      <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -4897,7 +4629,6 @@
       <c r="B173" t="n">
         <v>4</v>
       </c>
-      <c r="C173" t="inlineStr"/>
       <c r="D173" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -4918,7 +4649,6 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr"/>
       <c r="B174" t="n">
         <v>3</v>
       </c>
@@ -4927,13 +4657,11 @@
           <t>8.1.3</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
           <t>To what extent is the outer skin of the protected buildings constructed such as to prevent removal or opening of outer-skin components using standard tools?</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4944,7 +4672,6 @@
       <c r="B175" t="n">
         <v>4</v>
       </c>
-      <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -4970,7 +4697,6 @@
       <c r="B176" t="n">
         <v>4</v>
       </c>
-      <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -4989,7 +4715,6 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr"/>
       <c r="B177" t="n">
         <v>3</v>
       </c>
@@ -4998,13 +4723,11 @@
           <t>8.1.4</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
           <t>To what extent is view and sight protection ensured in defined security areas?</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -5015,7 +4738,6 @@
       <c r="B178" t="n">
         <v>4</v>
       </c>
-      <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5041,7 +4763,6 @@
       <c r="B179" t="n">
         <v>4</v>
       </c>
-      <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
           <t>(should)</t>
@@ -5068,7 +4789,6 @@
       <c r="B180" t="n">
         <v>4</v>
       </c>
-      <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
           <t>(for vehicles classified as requiring protection)</t>
@@ -5086,7 +4806,6 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr"/>
       <c r="B181" t="n">
         <v>3</v>
       </c>
@@ -5095,13 +4814,11 @@
           <t>8.1.5</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
           <t>To what extent is the protection against unauthorized entry regulated in the form of access control?</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -5112,7 +4829,6 @@
       <c r="B182" t="n">
         <v>4</v>
       </c>
-      <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5141,7 +4857,6 @@
       <c r="B183" t="n">
         <v>4</v>
       </c>
-      <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
           <t>(for vehicles classified as requiring protection)</t>
@@ -5159,7 +4874,6 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr"/>
       <c r="B184" t="n">
         <v>3</v>
       </c>
@@ -5168,13 +4882,11 @@
           <t>8.1.6</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
           <t>To what extent are the premises to be secured monitored for intrusion?</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -5185,7 +4897,6 @@
       <c r="B185" t="n">
         <v>4</v>
       </c>
-      <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5207,7 +4918,6 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr"/>
       <c r="B186" t="n">
         <v>3</v>
       </c>
@@ -5216,13 +4926,11 @@
           <t>8.1.7</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
           <t>To what extent is a documented visitor management in place?</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5233,7 +4941,6 @@
       <c r="B187" t="n">
         <v>4</v>
       </c>
-      <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5254,7 +4961,6 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr"/>
       <c r="B188" t="n">
         <v>3</v>
       </c>
@@ -5263,13 +4969,11 @@
           <t>8.1.8</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
           <t>To what extent is on-site client segregation existent?</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5280,7 +4984,6 @@
       <c r="B189" t="n">
         <v>4</v>
       </c>
-      <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5309,7 +5012,6 @@
       <c r="B190" t="n">
         <v>4</v>
       </c>
-      <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
           <t>(for vehicles classified as requiring protection)</t>
@@ -5327,7 +5029,6 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr"/>
       <c r="B191" t="n">
         <v>2</v>
       </c>
@@ -5336,16 +5037,13 @@
           <t>8.2</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
           <t>Organizational Requirements</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr"/>
       <c r="B192" t="n">
         <v>3</v>
       </c>
@@ -5354,13 +5052,11 @@
           <t>8.2.1</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
           <t>To what extent are non-disclosure agreements/obligations existent according to the valid contractual law?</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5371,7 +5067,6 @@
       <c r="B193" t="n">
         <v>4</v>
       </c>
-      <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5392,7 +5087,6 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr"/>
       <c r="B194" t="n">
         <v>3</v>
       </c>
@@ -5401,13 +5095,11 @@
           <t>8.2.2</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
           <t>To what extent are requirements for commissioning subcontractors known and fulfilled?</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5418,7 +5110,6 @@
       <c r="B195" t="n">
         <v>4</v>
       </c>
-      <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5441,7 +5132,6 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr"/>
       <c r="B196" t="n">
         <v>3</v>
       </c>
@@ -5450,13 +5140,11 @@
           <t>8.2.3</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
           <t>To what extent do employees and project members evidently participate in training and awareness measures regarding the handling of prototypes?</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5467,7 +5155,6 @@
       <c r="B197" t="n">
         <v>4</v>
       </c>
-      <c r="C197" t="inlineStr"/>
       <c r="D197" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5491,7 +5178,6 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr"/>
       <c r="B198" t="n">
         <v>3</v>
       </c>
@@ -5500,13 +5186,11 @@
           <t>8.2.4</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
           <t>To what extent are security classifications of the project and the resulting security measures known?</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5517,7 +5201,6 @@
       <c r="B199" t="n">
         <v>4</v>
       </c>
-      <c r="C199" t="inlineStr"/>
       <c r="D199" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5537,7 +5220,6 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr"/>
       <c r="B200" t="n">
         <v>3</v>
       </c>
@@ -5546,13 +5228,11 @@
           <t>8.2.5</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
           <t>To what extent is a process defined for granting access to security areas?</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5563,7 +5243,6 @@
       <c r="B201" t="n">
         <v>4</v>
       </c>
-      <c r="C201" t="inlineStr"/>
       <c r="D201" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5583,7 +5262,6 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr"/>
       <c r="B202" t="n">
         <v>3</v>
       </c>
@@ -5592,13 +5270,11 @@
           <t>8.2.6</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
           <t>To what extent are regulations for image recording and handling of created image material existent?</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5609,7 +5285,6 @@
       <c r="B203" t="n">
         <v>4</v>
       </c>
-      <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5631,7 +5306,6 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr"/>
       <c r="B204" t="n">
         <v>3</v>
       </c>
@@ -5640,13 +5314,11 @@
           <t>8.2.7</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
           <t>To what extent is a process for carrying along and using mobile video and photography devices in(to) defined security areas established?</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5657,7 +5329,6 @@
       <c r="B205" t="n">
         <v>4</v>
       </c>
-      <c r="C205" t="inlineStr"/>
       <c r="D205" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5676,7 +5347,6 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr"/>
       <c r="B206" t="n">
         <v>2</v>
       </c>
@@ -5685,16 +5355,13 @@
           <t>8.3</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
           <t>Handling of vehicles, components and parts</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr"/>
       <c r="B207" t="n">
         <v>3</v>
       </c>
@@ -5703,13 +5370,11 @@
           <t>8.3.1</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
           <t>To what extent are transports of vehicles, components or parts classified as requiring protection arranged according to the customer requirements?</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5720,7 +5385,6 @@
       <c r="B208" t="n">
         <v>4</v>
       </c>
-      <c r="C208" t="inlineStr"/>
       <c r="D208" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5741,7 +5405,6 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr"/>
       <c r="B209" t="n">
         <v>3</v>
       </c>
@@ -5750,13 +5413,11 @@
           <t>8.3.2</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
           <t>To what extent is it ensured that vehicles, components and parts classified as requiring protection are parked/stored in accordance with customer requirements?</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5767,7 +5428,6 @@
       <c r="B210" t="n">
         <v>4</v>
       </c>
-      <c r="C210" t="inlineStr"/>
       <c r="D210" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5785,7 +5445,6 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr"/>
       <c r="B211" t="n">
         <v>2</v>
       </c>
@@ -5794,16 +5453,13 @@
           <t>8.4</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
           <t>Requirements for trial vehicles</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr"/>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr"/>
       <c r="B212" t="n">
         <v>3</v>
       </c>
@@ -5812,13 +5468,11 @@
           <t>8.4.1</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
           <t>To what extent are the predefined camouflage regulations implemented by the project members?</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5829,7 +5483,6 @@
       <c r="B213" t="n">
         <v>4</v>
       </c>
-      <c r="C213" t="inlineStr"/>
       <c r="D213" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5849,7 +5502,6 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr"/>
       <c r="B214" t="n">
         <v>3</v>
       </c>
@@ -5858,13 +5510,11 @@
           <t>8.4.2</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
           <t>To what extent are measures for protecting approved test and trial grounds observed/implemented?</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5875,7 +5525,6 @@
       <c r="B215" t="n">
         <v>4</v>
       </c>
-      <c r="C215" t="inlineStr"/>
       <c r="D215" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5897,7 +5546,6 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr"/>
       <c r="B216" t="n">
         <v>3</v>
       </c>
@@ -5906,13 +5554,11 @@
           <t>8.4.3</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
           <t>To what extent are protective measures for approved test and trial drives in public observed/implemented?</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5923,7 +5569,6 @@
       <c r="B217" t="n">
         <v>4</v>
       </c>
-      <c r="C217" t="inlineStr"/>
       <c r="D217" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -5943,7 +5588,6 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr"/>
       <c r="B218" t="n">
         <v>2</v>
       </c>
@@ -5952,16 +5596,13 @@
           <t>8.5</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
           <t>Requirements for events and shootings</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr"/>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr"/>
       <c r="B219" t="n">
         <v>3</v>
       </c>
@@ -5970,13 +5611,11 @@
           <t>8.5.1</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
           <t>To what extent are security requirements for presentations and events involving vehicles, components or parts classified as requiring protection known?</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5987,7 +5626,6 @@
       <c r="B220" t="n">
         <v>4</v>
       </c>
-      <c r="C220" t="inlineStr"/>
       <c r="D220" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -6008,7 +5646,6 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr"/>
       <c r="B221" t="n">
         <v>3</v>
       </c>
@@ -6017,13 +5654,11 @@
           <t>8.5.2</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
           <t>To what extent are the protective measures for film and photo shootings involving vehicles, components or parts classified as requiring protection known?</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -6034,7 +5669,6 @@
       <c r="B222" t="n">
         <v>4</v>
       </c>
-      <c r="C222" t="inlineStr"/>
       <c r="D222" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -6056,7 +5690,6 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr"/>
       <c r="B223" t="n">
         <v>1</v>
       </c>
@@ -6070,11 +5703,8 @@
           <t>Data Protection</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr"/>
       <c r="B224" t="n">
         <v>2</v>
       </c>
@@ -6083,13 +5713,11 @@
           <t>9.1</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
           <t>To what extent is the implementation of data protection organized?</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -6100,7 +5728,6 @@
       <c r="B225" t="n">
         <v>3</v>
       </c>
-      <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -6125,7 +5752,6 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr"/>
       <c r="B226" t="n">
         <v>2</v>
       </c>
@@ -6134,13 +5760,11 @@
           <t>9.2</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
           <t>To what extent are organizational measures taken in order to ensure that personally identifiable data is processed in conformance with legislation?</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6151,7 +5775,6 @@
       <c r="B227" t="n">
         <v>3</v>
       </c>
-      <c r="C227" t="inlineStr"/>
       <c r="D227" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -6182,7 +5805,6 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr"/>
       <c r="B228" t="n">
         <v>2</v>
       </c>
@@ -6191,13 +5813,11 @@
           <t>9.3</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
           <t>To what extent is it ensured that the internal processes or workflows are carried out according to the currently valid data protection regulations and that these are regularly subjected to a quality check?</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6208,7 +5828,6 @@
       <c r="B229" t="n">
         <v>3</v>
       </c>
-      <c r="C229" t="inlineStr"/>
       <c r="D229" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -6230,7 +5849,6 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr"/>
       <c r="B230" t="n">
         <v>2</v>
       </c>
@@ -6239,14 +5857,12 @@
           <t>9.4</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
           <t xml:space="preserve">To what extent are the relevant processing procedures documented with regard to their admissibility according to data protection law?
 </t>
         </is>
       </c>
-      <c r="F230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6257,7 +5873,6 @@
       <c r="B231" t="n">
         <v>3</v>
       </c>
-      <c r="C231" t="inlineStr"/>
       <c r="D231" t="inlineStr">
         <is>
           <t>(must)</t>
@@ -6281,7 +5896,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>scores</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>scores</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6407,7 +6065,50 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>implementation_groups</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>implementation_groups</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
